--- a/code/position.xlsx
+++ b/code/position.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiang/Documents/GitHub/logistic_project/code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF4804B-1EEC-3541-B236-168A31C13C7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="10800" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="377">
   <si>
     <t>供应商号</t>
   </si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>闵行景联路855号</t>
-  </si>
-  <si>
-    <t>121.443967</t>
   </si>
   <si>
     <t>10895</t>
@@ -1153,18 +1156,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1174,356 +1171,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1546,348 +1212,62 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="常规_2008-8-11 SAP导出数据" xfId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="样式 1" xfId="50"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_2008-8-11 SAP导出数据" xfId="1" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="样式 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1903,7 +1283,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1915,7 +1295,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1929,12 +1309,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1962,14 +1342,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1997,6 +1394,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2138,24 +1552,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="35.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="13.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="13.7272727272727" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -2182,7 +1596,7 @@
         <v>121.376991</v>
       </c>
       <c r="D2">
-        <v>31.278586</v>
+        <v>31.278586000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2224,7 +1638,7 @@
         <v>121.472176</v>
       </c>
       <c r="D5">
-        <v>31.34658</v>
+        <v>31.346579999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2238,7 +1652,7 @@
         <v>121.504454</v>
       </c>
       <c r="D6">
-        <v>31.094793</v>
+        <v>31.094792999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2252,7 +1666,7 @@
         <v>121.494636</v>
       </c>
       <c r="D7">
-        <v>31.330224</v>
+        <v>31.330224000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2280,7 +1694,7 @@
         <v>121.32982</v>
       </c>
       <c r="D9">
-        <v>31.142648</v>
+        <v>31.142648000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2291,10 +1705,10 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>121.40797</v>
+        <v>121.40797000000001</v>
       </c>
       <c r="D10">
-        <v>31.056591</v>
+        <v>31.056591000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2304,22 +1718,22 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
+      <c r="C11" s="2">
+        <v>121.443967</v>
       </c>
       <c r="D11">
-        <v>31.105364</v>
+        <v>31.105364000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12">
-        <v>121.384357</v>
+        <v>121.38435699999999</v>
       </c>
       <c r="D12">
         <v>31.075025</v>
@@ -2327,24 +1741,24 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
       </c>
       <c r="C13">
         <v>121.225875</v>
       </c>
       <c r="D13">
-        <v>31.023558</v>
+        <v>31.023558000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
       </c>
       <c r="C14">
         <v>121.325897</v>
@@ -2355,52 +1769,52 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
       </c>
       <c r="C15">
         <v>121.393171</v>
       </c>
       <c r="D15">
-        <v>31.230039</v>
+        <v>31.230039000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
       </c>
       <c r="C16">
         <v>121.454094</v>
       </c>
       <c r="D16">
-        <v>31.290218</v>
+        <v>31.290217999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
       </c>
       <c r="C17">
         <v>121.460578</v>
       </c>
       <c r="D17">
-        <v>31.306098</v>
+        <v>31.306097999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
       </c>
       <c r="C18">
         <v>121.531453</v>
@@ -2411,52 +1825,52 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
       <c r="C19">
-        <v>121.436855</v>
+        <v>121.43685499999999</v>
       </c>
       <c r="D19">
-        <v>31.138846</v>
+        <v>31.138846000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
       </c>
       <c r="C20">
         <v>121.391806</v>
       </c>
       <c r="D20">
-        <v>31.229179</v>
+        <v>31.229178999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
       </c>
       <c r="C21">
         <v>121.421053</v>
       </c>
       <c r="D21">
-        <v>31.180288</v>
+        <v>31.180288000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
       </c>
       <c r="C22">
         <v>121.461361</v>
@@ -2467,38 +1881,38 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23">
-        <v>121.478203</v>
+        <v>121.47820299999999</v>
       </c>
       <c r="D23">
-        <v>31.315307</v>
+        <v>31.315307000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
       </c>
       <c r="C24">
         <v>121.568766</v>
       </c>
       <c r="D24">
-        <v>31.292789</v>
+        <v>31.292788999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
       </c>
       <c r="C25">
         <v>121.231317</v>
@@ -2509,80 +1923,80 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
       <c r="C26">
-        <v>121.261631</v>
+        <v>121.26163099999999</v>
       </c>
       <c r="D26">
-        <v>31.370696</v>
+        <v>31.370695999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
       </c>
       <c r="C27">
         <v>121.217727</v>
       </c>
       <c r="D27">
-        <v>31.252254</v>
+        <v>31.252254000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
       </c>
       <c r="C28">
         <v>121.210685</v>
       </c>
       <c r="D28">
-        <v>31.318467</v>
+        <v>31.318466999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
       </c>
       <c r="C29">
         <v>121.441558</v>
       </c>
       <c r="D29">
-        <v>31.355737</v>
+        <v>31.355737000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
       <c r="C30">
-        <v>121.37919</v>
+        <v>121.37918999999999</v>
       </c>
       <c r="D30">
-        <v>31.283646</v>
+        <v>31.283646000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
       </c>
       <c r="C31">
         <v>121.511447</v>
@@ -2593,52 +2007,52 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
       </c>
       <c r="C32">
         <v>121.530171</v>
       </c>
       <c r="D32">
-        <v>31.310237</v>
+        <v>31.310237000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
       <c r="C33">
-        <v>121.551657</v>
+        <v>121.55165700000001</v>
       </c>
       <c r="D33">
-        <v>31.28261</v>
+        <v>31.282609999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
       </c>
       <c r="C34">
         <v>121.540043</v>
       </c>
       <c r="D34">
-        <v>31.222533</v>
+        <v>31.222532999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
       </c>
       <c r="C35">
         <v>121.205552</v>
@@ -2649,55 +2063,55 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
       </c>
       <c r="C36">
         <v>121.331155</v>
       </c>
       <c r="D36">
-        <v>30.894273</v>
+        <v>30.894272999999998</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
       </c>
       <c r="C37">
         <v>121.559721</v>
       </c>
       <c r="D37">
-        <v>31.20143</v>
+        <v>31.201429999999998</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>121.540043</v>
       </c>
       <c r="D38">
-        <v>31.222533</v>
+        <v>31.222532999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
       <c r="C39">
-        <v>121.563027</v>
+        <v>121.56302700000001</v>
       </c>
       <c r="D39">
         <v>31.137141</v>
@@ -2705,55 +2119,55 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
       </c>
       <c r="C40">
         <v>121.558919</v>
       </c>
       <c r="D40">
-        <v>31.230215</v>
+        <v>31.230215000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
         <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
       </c>
       <c r="C41">
         <v>121.200818</v>
       </c>
       <c r="D41">
-        <v>31.313711</v>
+        <v>31.313711000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
         <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
       </c>
       <c r="C42">
         <v>121.227609</v>
       </c>
       <c r="D42">
-        <v>31.319075</v>
+        <v>31.319075000000002</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
       <c r="C43">
-        <v>120.40592</v>
+        <v>120.40591999999999</v>
       </c>
       <c r="D43">
         <v>31.532079</v>
@@ -2761,41 +2175,41 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
       </c>
       <c r="C44">
         <v>121.165246</v>
       </c>
       <c r="D44">
-        <v>31.307263</v>
+        <v>31.307262999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
         <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
       </c>
       <c r="C45">
         <v>121.192723</v>
       </c>
       <c r="D45">
-        <v>31.322074</v>
+        <v>31.322074000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
       <c r="C46">
-        <v>120.922047</v>
+        <v>120.92204700000001</v>
       </c>
       <c r="D46">
         <v>31.338873</v>
@@ -2803,10 +2217,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
       </c>
       <c r="C47">
         <v>121.574434</v>
@@ -2817,122 +2231,122 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
       <c r="C48">
-        <v>121.176482</v>
+        <v>121.17648199999999</v>
       </c>
       <c r="D48">
-        <v>31.313719</v>
+        <v>31.313718999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
       </c>
       <c r="C49">
         <v>121.239166</v>
       </c>
       <c r="D49">
-        <v>30.833028</v>
+        <v>30.833027999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" t="s">
-        <v>101</v>
       </c>
       <c r="C50">
         <v>121.133425</v>
       </c>
       <c r="D50">
-        <v>31.310647</v>
+        <v>31.310646999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
         <v>102</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
       </c>
       <c r="C51">
         <v>121.133425</v>
       </c>
       <c r="D51">
-        <v>31.310647</v>
+        <v>31.310646999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
         <v>104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>105</v>
       </c>
       <c r="C52">
         <v>121.313936</v>
       </c>
       <c r="D52">
-        <v>31.302943</v>
+        <v>31.302942999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
         <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>107</v>
       </c>
       <c r="C53">
         <v>121.311804</v>
       </c>
       <c r="D53">
-        <v>31.448721</v>
+        <v>31.448720999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
       </c>
       <c r="C54">
         <v>120.077377</v>
       </c>
       <c r="D54">
-        <v>30.876332</v>
+        <v>30.876332000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
         <v>110</v>
-      </c>
-      <c r="B55" t="s">
-        <v>111</v>
       </c>
       <c r="C55">
         <v>120.556032</v>
       </c>
       <c r="D55">
-        <v>31.861758</v>
+        <v>31.861757999999998</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
         <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>113</v>
       </c>
       <c r="C56">
         <v>121.171491</v>
@@ -2943,52 +2357,52 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
       </c>
       <c r="C57">
         <v>121.231903</v>
       </c>
       <c r="D57">
-        <v>31.381434</v>
+        <v>31.381433999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
         <v>116</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
       </c>
       <c r="C58">
         <v>120.621917</v>
       </c>
       <c r="D58">
-        <v>31.400867</v>
+        <v>31.400867000000002</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
       <c r="C59">
-        <v>121.191241</v>
+        <v>121.19124100000001</v>
       </c>
       <c r="D59">
-        <v>31.309433</v>
+        <v>31.309432999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
         <v>120</v>
-      </c>
-      <c r="B60" t="s">
-        <v>121</v>
       </c>
       <c r="C60">
         <v>121.09317</v>
@@ -2999,13 +2413,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="s">
-        <v>123</v>
-      </c>
       <c r="C61">
-        <v>121.185611</v>
+        <v>121.18561099999999</v>
       </c>
       <c r="D61">
         <v>31.307644</v>
@@ -3013,41 +2427,41 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
         <v>124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>125</v>
       </c>
       <c r="C62">
         <v>121.215718</v>
       </c>
       <c r="D62">
-        <v>31.533931</v>
+        <v>31.533930999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
         <v>126</v>
-      </c>
-      <c r="B63" t="s">
-        <v>127</v>
       </c>
       <c r="C63">
         <v>121.189356</v>
       </c>
       <c r="D63">
-        <v>31.288558</v>
+        <v>31.288557999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="s">
-        <v>129</v>
-      </c>
       <c r="C64">
-        <v>121.168061</v>
+        <v>121.16806099999999</v>
       </c>
       <c r="D64">
         <v>31.300898</v>
@@ -3055,10 +2469,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
         <v>130</v>
-      </c>
-      <c r="B65" t="s">
-        <v>131</v>
       </c>
       <c r="C65">
         <v>121.711557</v>
@@ -3069,38 +2483,38 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
         <v>132</v>
-      </c>
-      <c r="B66" t="s">
-        <v>133</v>
       </c>
       <c r="C66">
         <v>121.458259</v>
       </c>
       <c r="D66">
-        <v>30.957928</v>
+        <v>30.957927999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="s">
-        <v>135</v>
-      </c>
       <c r="C67">
-        <v>121.293692</v>
+        <v>121.29369199999999</v>
       </c>
       <c r="D67">
-        <v>31.385166</v>
+        <v>31.385166000000002</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
         <v>136</v>
-      </c>
-      <c r="B68" t="s">
-        <v>137</v>
       </c>
       <c r="C68">
         <v>121.254465</v>
@@ -3111,83 +2525,83 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
-      </c>
-      <c r="B69" t="s">
-        <v>139</v>
       </c>
       <c r="C69">
         <v>121.200564</v>
       </c>
       <c r="D69">
-        <v>31.3417</v>
+        <v>31.341699999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
         <v>140</v>
-      </c>
-      <c r="B70" t="s">
-        <v>141</v>
       </c>
       <c r="C70">
         <v>121.169175</v>
       </c>
       <c r="D70">
-        <v>31.293372</v>
+        <v>31.293372000000002</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
       <c r="C71">
-        <v>114.945205</v>
+        <v>121.19933399999999</v>
       </c>
       <c r="D71">
-        <v>23.424445</v>
+        <v>31.302852999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
         <v>144</v>
-      </c>
-      <c r="B72" t="s">
-        <v>145</v>
       </c>
       <c r="C72">
         <v>120.268508</v>
       </c>
       <c r="D72">
-        <v>31.60634</v>
+        <v>31.606339999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
         <v>146</v>
-      </c>
-      <c r="B73" t="s">
-        <v>147</v>
       </c>
       <c r="C73">
         <v>121.454037</v>
       </c>
       <c r="D73">
-        <v>30.92749</v>
+        <v>30.927489999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="s">
-        <v>149</v>
-      </c>
       <c r="C74">
-        <v>121.180282</v>
+        <v>121.18028200000001</v>
       </c>
       <c r="D74">
         <v>31.364815</v>
@@ -3195,52 +2609,52 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
       <c r="C75">
-        <v>120.419947</v>
+        <v>120.41994699999999</v>
       </c>
       <c r="D75">
-        <v>31.642148</v>
+        <v>31.642147999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>153</v>
       </c>
       <c r="C76">
         <v>120.191644</v>
       </c>
       <c r="D76">
-        <v>31.648507</v>
+        <v>31.648506999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
         <v>154</v>
-      </c>
-      <c r="B77" t="s">
-        <v>155</v>
       </c>
       <c r="C77">
         <v>121.647924</v>
       </c>
       <c r="D77">
-        <v>30.969591</v>
+        <v>30.969591000000001</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
         <v>156</v>
-      </c>
-      <c r="B78" t="s">
-        <v>157</v>
       </c>
       <c r="C78">
         <v>121.281684</v>
@@ -3251,10 +2665,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" t="s">
-        <v>159</v>
       </c>
       <c r="C79">
         <v>120.394306</v>
@@ -3265,10 +2679,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
         <v>160</v>
-      </c>
-      <c r="B80" t="s">
-        <v>161</v>
       </c>
       <c r="C80">
         <v>121.671575</v>
@@ -3279,10 +2693,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" t="s">
         <v>162</v>
-      </c>
-      <c r="B81" t="s">
-        <v>163</v>
       </c>
       <c r="C81">
         <v>121.125631</v>
@@ -3293,27 +2707,27 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
         <v>164</v>
-      </c>
-      <c r="B82" t="s">
-        <v>165</v>
       </c>
       <c r="C82">
         <v>120.546314</v>
       </c>
       <c r="D82">
-        <v>31.868405</v>
+        <v>31.868404999999999</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="s">
-        <v>167</v>
-      </c>
       <c r="C83">
-        <v>121.695693</v>
+        <v>121.69569300000001</v>
       </c>
       <c r="D83">
         <v>31.217959</v>
@@ -3321,27 +2735,27 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" t="s">
-        <v>169</v>
       </c>
       <c r="C84">
         <v>121.183519</v>
       </c>
       <c r="D84">
-        <v>31.332738</v>
+        <v>31.332737999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="s">
-        <v>171</v>
-      </c>
       <c r="C85">
-        <v>121.204861</v>
+        <v>121.20486099999999</v>
       </c>
       <c r="D85">
         <v>31.320691</v>
@@ -3349,52 +2763,52 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
         <v>172</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
       </c>
       <c r="C86">
         <v>121.256803</v>
       </c>
       <c r="D86">
-        <v>31.368843</v>
+        <v>31.368842999999998</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
         <v>174</v>
-      </c>
-      <c r="B87" t="s">
-        <v>175</v>
       </c>
       <c r="C87">
         <v>121.583426</v>
       </c>
       <c r="D87">
-        <v>31.018479</v>
+        <v>31.018478999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
         <v>176</v>
-      </c>
-      <c r="B88" t="s">
-        <v>177</v>
       </c>
       <c r="C88">
         <v>121.233525</v>
       </c>
       <c r="D88">
-        <v>30.834962</v>
+        <v>30.834962000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s">
         <v>178</v>
-      </c>
-      <c r="B89" t="s">
-        <v>179</v>
       </c>
       <c r="C89">
         <v>121.204593</v>
@@ -3405,27 +2819,27 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
         <v>180</v>
-      </c>
-      <c r="B90" t="s">
-        <v>181</v>
       </c>
       <c r="C90">
         <v>121.29176</v>
       </c>
       <c r="D90">
-        <v>31.299466</v>
+        <v>31.299465999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="s">
-        <v>183</v>
-      </c>
       <c r="C91">
-        <v>121.181711</v>
+        <v>121.18171100000001</v>
       </c>
       <c r="D91">
         <v>31.293049</v>
@@ -3433,16 +2847,16 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="s">
-        <v>185</v>
-      </c>
       <c r="C92">
-        <v>121.73131</v>
+        <v>121.73130999999999</v>
       </c>
       <c r="D92">
-        <v>31.114073</v>
+        <v>31.114073000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3450,13 +2864,13 @@
         <v>11091</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C93">
-        <v>120.462759</v>
+        <v>120.46275900000001</v>
       </c>
       <c r="D93">
-        <v>31.958835</v>
+        <v>31.958835000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3464,13 +2878,13 @@
         <v>11050</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94">
         <v>121.200299</v>
       </c>
       <c r="D94">
-        <v>31.438728</v>
+        <v>31.438728000000001</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3478,13 +2892,13 @@
         <v>11016</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C95">
         <v>121.144926</v>
       </c>
       <c r="D95">
-        <v>31.462082</v>
+        <v>31.462081999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3492,13 +2906,13 @@
         <v>10450</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C96">
         <v>121.598268</v>
       </c>
       <c r="D96">
-        <v>30.919365</v>
+        <v>30.919364999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3506,13 +2920,13 @@
         <v>10278</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C97">
         <v>121.652612</v>
       </c>
       <c r="D97">
-        <v>30.958524</v>
+        <v>30.958524000000001</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3520,49 +2934,49 @@
         <v>11012</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C98">
         <v>121.198081</v>
       </c>
       <c r="D98">
-        <v>31.431983</v>
+        <v>31.431982999999999</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99">
-        <v>121.176482</v>
+        <v>121.17648199999999</v>
       </c>
       <c r="D99">
-        <v>31.313719</v>
+        <v>31.313718999999999</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" t="s">
         <v>193</v>
       </c>
-      <c r="B100" t="s">
-        <v>194</v>
-      </c>
       <c r="C100">
-        <v>121.246598</v>
+        <v>121.24659800000001</v>
       </c>
       <c r="D100">
-        <v>31.316505</v>
+        <v>31.316504999999999</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" t="s">
         <v>195</v>
-      </c>
-      <c r="B101" t="s">
-        <v>196</v>
       </c>
       <c r="C101">
         <v>120.430204</v>
@@ -3573,27 +2987,27 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" t="s">
         <v>197</v>
-      </c>
-      <c r="B102" t="s">
-        <v>198</v>
       </c>
       <c r="C102">
         <v>121.238669</v>
       </c>
       <c r="D102">
-        <v>31.360774</v>
+        <v>31.360773999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" t="s">
         <v>199</v>
       </c>
-      <c r="B103" t="s">
-        <v>200</v>
-      </c>
       <c r="C103">
-        <v>121.25123</v>
+        <v>121.25123000000001</v>
       </c>
       <c r="D103">
         <v>31.356548</v>
@@ -3601,111 +3015,111 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" t="s">
         <v>201</v>
-      </c>
-      <c r="B104" t="s">
-        <v>202</v>
       </c>
       <c r="C104">
         <v>121.241941</v>
       </c>
       <c r="D104">
-        <v>31.294106</v>
+        <v>31.294105999999999</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" t="s">
         <v>203</v>
       </c>
-      <c r="B105" t="s">
-        <v>204</v>
-      </c>
       <c r="C105">
-        <v>121.314686</v>
+        <v>121.31468599999999</v>
       </c>
       <c r="D105">
-        <v>31.358038</v>
+        <v>31.358038000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" t="s">
         <v>205</v>
-      </c>
-      <c r="B106" t="s">
-        <v>206</v>
       </c>
       <c r="C106">
         <v>121.371595</v>
       </c>
       <c r="D106">
-        <v>31.285906</v>
+        <v>31.285906000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" t="s">
         <v>207</v>
-      </c>
-      <c r="B107" t="s">
-        <v>208</v>
       </c>
       <c r="C107">
         <v>120.955388</v>
       </c>
       <c r="D107">
-        <v>31.279497</v>
+        <v>31.279496999999999</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" t="s">
         <v>209</v>
       </c>
-      <c r="B108" t="s">
-        <v>210</v>
-      </c>
       <c r="C108">
-        <v>120.803091</v>
+        <v>120.80309099999999</v>
       </c>
       <c r="D108">
-        <v>31.306481</v>
+        <v>31.306481000000002</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" t="s">
         <v>211</v>
-      </c>
-      <c r="B109" t="s">
-        <v>212</v>
       </c>
       <c r="C109">
         <v>120.224439</v>
       </c>
       <c r="D109">
-        <v>31.56187</v>
+        <v>31.561869999999999</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" t="s">
         <v>213</v>
-      </c>
-      <c r="B110" t="s">
-        <v>214</v>
       </c>
       <c r="C110">
         <v>120.266397</v>
       </c>
       <c r="D110">
-        <v>31.597025</v>
+        <v>31.597024999999999</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" t="s">
         <v>215</v>
       </c>
-      <c r="B111" t="s">
-        <v>216</v>
-      </c>
       <c r="C111">
-        <v>121.208919</v>
+        <v>121.20891899999999</v>
       </c>
       <c r="D111">
         <v>31.327634</v>
@@ -3713,10 +3127,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" t="s">
         <v>217</v>
-      </c>
-      <c r="B112" t="s">
-        <v>218</v>
       </c>
       <c r="C112">
         <v>121.269625</v>
@@ -3727,52 +3141,52 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B113" t="s">
         <v>219</v>
       </c>
-      <c r="B113" t="s">
-        <v>220</v>
-      </c>
       <c r="C113">
-        <v>120.572742</v>
+        <v>120.57274200000001</v>
       </c>
       <c r="D113">
-        <v>31.30848</v>
+        <v>31.308479999999999</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" t="s">
         <v>221</v>
-      </c>
-      <c r="B114" t="s">
-        <v>222</v>
       </c>
       <c r="C114">
         <v>120.674513</v>
       </c>
       <c r="D114">
-        <v>31.333826</v>
+        <v>31.333825999999998</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" t="s">
         <v>223</v>
-      </c>
-      <c r="B115" t="s">
-        <v>224</v>
       </c>
       <c r="C115">
         <v>121.302273</v>
       </c>
       <c r="D115">
-        <v>31.359387</v>
+        <v>31.359387000000002</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" t="s">
         <v>225</v>
-      </c>
-      <c r="B116" t="s">
-        <v>226</v>
       </c>
       <c r="C116">
         <v>121.362934</v>
@@ -3783,27 +3197,27 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" t="s">
         <v>227</v>
       </c>
-      <c r="B117" t="s">
-        <v>228</v>
-      </c>
       <c r="C117">
-        <v>120.79622</v>
+        <v>120.79622000000001</v>
       </c>
       <c r="D117">
-        <v>31.322058</v>
+        <v>31.322057999999998</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" t="s">
         <v>229</v>
       </c>
-      <c r="B118" t="s">
-        <v>230</v>
-      </c>
       <c r="C118">
-        <v>121.653416</v>
+        <v>121.65341600000001</v>
       </c>
       <c r="D118">
         <v>30.992359</v>
@@ -3811,24 +3225,24 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B119" t="s">
         <v>231</v>
-      </c>
-      <c r="B119" t="s">
-        <v>232</v>
       </c>
       <c r="C119">
         <v>121.706065</v>
       </c>
       <c r="D119">
-        <v>31.032876</v>
+        <v>31.032876000000002</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B120" t="s">
         <v>233</v>
-      </c>
-      <c r="B120" t="s">
-        <v>234</v>
       </c>
       <c r="C120">
         <v>121.122196</v>
@@ -3839,38 +3253,38 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" t="s">
         <v>235</v>
-      </c>
-      <c r="B121" t="s">
-        <v>236</v>
       </c>
       <c r="C121">
         <v>120.817623</v>
       </c>
       <c r="D121">
-        <v>31.337406</v>
+        <v>31.337406000000001</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" t="s">
         <v>237</v>
-      </c>
-      <c r="B122" t="s">
-        <v>238</v>
       </c>
       <c r="C122">
         <v>121.200401</v>
       </c>
       <c r="D122">
-        <v>31.316823</v>
+        <v>31.316822999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" t="s">
         <v>239</v>
-      </c>
-      <c r="B123" t="s">
-        <v>240</v>
       </c>
       <c r="C123">
         <v>121.26521</v>
@@ -3881,24 +3295,24 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" t="s">
         <v>241</v>
       </c>
-      <c r="B124" t="s">
-        <v>242</v>
-      </c>
       <c r="C124">
-        <v>121.133794</v>
+        <v>121.13379399999999</v>
       </c>
       <c r="D124">
-        <v>31.176141</v>
+        <v>31.176141000000001</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" t="s">
         <v>243</v>
-      </c>
-      <c r="B125" t="s">
-        <v>244</v>
       </c>
       <c r="C125">
         <v>121.619236</v>
@@ -3909,24 +3323,24 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B126" t="s">
         <v>245</v>
-      </c>
-      <c r="B126" t="s">
-        <v>246</v>
       </c>
       <c r="C126">
         <v>120.8985</v>
       </c>
       <c r="D126">
-        <v>31.289067</v>
+        <v>31.289066999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B127" t="s">
         <v>247</v>
-      </c>
-      <c r="B127" t="s">
-        <v>248</v>
       </c>
       <c r="C127">
         <v>121.248678</v>
@@ -3937,10 +3351,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B128" t="s">
         <v>249</v>
-      </c>
-      <c r="B128" t="s">
-        <v>250</v>
       </c>
       <c r="C128">
         <v>121.23237</v>
@@ -3949,68 +3363,68 @@
         <v>31.38241</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B129" t="s">
         <v>251</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129">
+        <v>121.14022799999999</v>
+      </c>
+      <c r="D129">
+        <v>31.293766000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C129">
-        <v>121.140228</v>
-      </c>
-      <c r="D129">
-        <v>31.293766</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1" t="s">
+      <c r="B130" t="s">
         <v>253</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130">
+        <v>121.22478099999999</v>
+      </c>
+      <c r="D130">
+        <v>31.358969999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C130">
-        <v>121.224781</v>
-      </c>
-      <c r="D130">
-        <v>31.35897</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1" t="s">
+      <c r="B131" t="s">
         <v>255</v>
-      </c>
-      <c r="B131" t="s">
-        <v>256</v>
       </c>
       <c r="C131">
         <v>121.180952</v>
       </c>
       <c r="D131">
-        <v>31.301494</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>31.301494000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B132" t="s">
         <v>257</v>
       </c>
-      <c r="B132" t="s">
-        <v>258</v>
-      </c>
       <c r="C132">
-        <v>121.19173</v>
+        <v>121.19173000000001</v>
       </c>
       <c r="D132">
         <v>31.309331</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" t="s">
         <v>259</v>
-      </c>
-      <c r="B133" t="s">
-        <v>260</v>
       </c>
       <c r="C133">
         <v>121.127636</v>
@@ -4019,112 +3433,112 @@
         <v>31.192021</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B134" t="s">
         <v>261</v>
-      </c>
-      <c r="B134" t="s">
-        <v>262</v>
       </c>
       <c r="C134">
         <v>121.310819</v>
       </c>
       <c r="D134">
-        <v>31.273188</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>31.273188000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B135" t="s">
         <v>263</v>
-      </c>
-      <c r="B135" t="s">
-        <v>264</v>
       </c>
       <c r="C135">
         <v>121.207566</v>
       </c>
       <c r="D135">
-        <v>31.340938</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>31.340938000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B136" t="s">
         <v>265</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136">
+        <v>121.20546299999999</v>
+      </c>
+      <c r="D136">
+        <v>31.333715000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C136">
-        <v>121.205463</v>
-      </c>
-      <c r="D136">
-        <v>31.333715</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C137">
         <v>121.245851</v>
       </c>
       <c r="D137">
-        <v>31.316558</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>31.316558000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" t="s">
         <v>268</v>
-      </c>
-      <c r="B138" t="s">
-        <v>269</v>
       </c>
       <c r="C138">
         <v>121.061561</v>
       </c>
       <c r="D138">
-        <v>31.254111</v>
+        <v>31.254111000000002</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="C139">
-        <v>121.28458</v>
+        <v>121.28458000000001</v>
       </c>
       <c r="D139">
-        <v>31.34625</v>
+        <v>31.346250000000001</v>
       </c>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="C140" s="4">
-        <v>121.16988</v>
+        <v>121.16988000000001</v>
       </c>
       <c r="D140">
-        <v>31.294643</v>
+        <v>31.294643000000001</v>
       </c>
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C141">
         <v>120.42473</v>
@@ -4136,70 +3550,70 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C142">
-        <v>121.53042</v>
+        <v>121.53042000000001</v>
       </c>
       <c r="D142">
-        <v>31.21728</v>
+        <v>31.217279999999999</v>
       </c>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="C143">
         <v>120.89959</v>
       </c>
       <c r="D143">
-        <v>31.09794</v>
+        <v>31.097940000000001</v>
       </c>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="C144">
-        <v>121.53042</v>
+        <v>121.53042000000001</v>
       </c>
       <c r="D144">
-        <v>31.21728</v>
+        <v>31.217279999999999</v>
       </c>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C145">
         <v>121.051804</v>
       </c>
       <c r="D145">
-        <v>31.084209</v>
+        <v>31.084209000000001</v>
       </c>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C146">
         <v>121.03733</v>
@@ -4211,25 +3625,25 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C147">
         <v>120.385445</v>
       </c>
       <c r="D147" s="4">
-        <v>31.500372</v>
+        <v>31.500371999999999</v>
       </c>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C148">
         <v>121.530598045654</v>
@@ -4241,13 +3655,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="C149">
-        <v>121.530426384277</v>
+        <v>121.53042638427701</v>
       </c>
       <c r="D149" s="4">
         <v>31.2720579282941</v>
@@ -4256,13 +3670,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="C150">
-        <v>121.278984</v>
+        <v>121.27898399999999</v>
       </c>
       <c r="D150" s="4">
         <v>31.188074</v>
@@ -4271,190 +3685,190 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="C151">
-        <v>117.201508</v>
+        <v>121.183519</v>
       </c>
       <c r="D151" s="4">
-        <v>39.093483</v>
+        <v>31.332737999999999</v>
       </c>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="C152">
-        <v>121.56978</v>
+        <v>121.56977999999999</v>
       </c>
       <c r="D152" s="4">
-        <v>31.10504</v>
+        <v>31.105039999999999</v>
       </c>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="C153">
-        <v>121.513382</v>
+        <v>121.51338200000001</v>
       </c>
       <c r="D153" s="4">
-        <v>31.006941</v>
+        <v>31.006941000000001</v>
       </c>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C154" s="4">
         <v>121.638155</v>
       </c>
       <c r="D154" s="4">
-        <v>31.272725</v>
+        <v>31.272725000000001</v>
       </c>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="C155" s="4">
         <v>121.380149</v>
       </c>
       <c r="D155" s="4">
-        <v>31.013409</v>
+        <v>31.013408999999999</v>
       </c>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="C156" s="4">
         <v>121.640551</v>
       </c>
       <c r="D156" s="4">
-        <v>31.332972</v>
+        <v>31.332972000000002</v>
       </c>
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C157" s="4">
         <v>121.679772</v>
       </c>
       <c r="D157" s="4">
-        <v>31.269751</v>
+        <v>31.269750999999999</v>
       </c>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C158" s="4">
         <v>121.382053</v>
       </c>
       <c r="D158" s="4">
-        <v>31.018686</v>
+        <v>31.018685999999999</v>
       </c>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="C159" s="4">
-        <v>121.595441</v>
+        <v>121.59544099999999</v>
       </c>
       <c r="D159" s="4">
-        <v>31.209431</v>
+        <v>31.209430999999999</v>
       </c>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="C160" s="4">
-        <v>121.595441</v>
+        <v>121.59544099999999</v>
       </c>
       <c r="D160" s="4">
-        <v>31.209431</v>
+        <v>31.209430999999999</v>
       </c>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C161" s="4">
         <v>121.617543</v>
       </c>
       <c r="D161" s="4">
-        <v>31.323195</v>
+        <v>31.323194999999998</v>
       </c>
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="C162" s="4">
-        <v>121.155273</v>
+        <v>121.15527299999999</v>
       </c>
       <c r="D162" s="4">
-        <v>31.034567</v>
+        <v>31.034566999999999</v>
       </c>
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C163" s="4">
         <v>121.349906</v>
@@ -4466,13 +3880,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="C164" s="4">
-        <v>119.965224</v>
+        <v>119.96522400000001</v>
       </c>
       <c r="D164" s="4">
         <v>31.760444</v>
@@ -4481,25 +3895,25 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C165" s="4">
         <v>120.147068</v>
       </c>
       <c r="D165" s="4">
-        <v>31.621172</v>
+        <v>31.621172000000001</v>
       </c>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C166" s="4">
         <v>120.172011</v>
@@ -4511,100 +3925,100 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="C167" s="4">
-        <v>120.210057</v>
+        <v>120.21005700000001</v>
       </c>
       <c r="D167" s="4">
-        <v>32.04182</v>
+        <v>32.041820000000001</v>
       </c>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C168" s="4">
         <v>120.299583</v>
       </c>
       <c r="D168" s="4">
-        <v>32.021527</v>
+        <v>32.021526999999999</v>
       </c>
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C169" s="4">
         <v>120.523707</v>
       </c>
       <c r="D169" s="4">
-        <v>31.382567</v>
+        <v>31.382567000000002</v>
       </c>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="C170" s="4">
-        <v>121.378431</v>
+        <v>121.37843100000001</v>
       </c>
       <c r="D170" s="4">
-        <v>31.303167</v>
+        <v>31.303166999999998</v>
       </c>
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="C171" s="4">
-        <v>121.559199</v>
+        <v>121.55919900000001</v>
       </c>
       <c r="D171" s="4">
-        <v>31.157184</v>
+        <v>31.157184000000001</v>
       </c>
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="C172" s="4">
-        <v>121.55401</v>
+        <v>121.55401000000001</v>
       </c>
       <c r="D172" s="4">
-        <v>31.364902</v>
+        <v>31.364902000000001</v>
       </c>
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C173" s="4">
         <v>121.068907</v>
@@ -4616,58 +4030,58 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="C174" s="4">
         <v>120.164451</v>
       </c>
       <c r="D174">
-        <v>31.623532</v>
+        <v>31.623532000000001</v>
       </c>
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C175" s="4">
         <v>121.184253</v>
       </c>
       <c r="D175">
-        <v>31.2982</v>
+        <v>31.298200000000001</v>
       </c>
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C176" s="4">
         <v>121.299041</v>
       </c>
       <c r="D176">
-        <v>31.34015</v>
+        <v>31.340150000000001</v>
       </c>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="C177" s="4">
-        <v>121.363419</v>
+        <v>121.36341899999999</v>
       </c>
       <c r="D177">
         <v>31.311083</v>
@@ -4676,55 +4090,55 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C178" s="4">
-        <v>121.16988</v>
+        <v>121.16988000000001</v>
       </c>
       <c r="D178">
-        <v>31.294643</v>
+        <v>31.294643000000001</v>
       </c>
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="C179">
-        <v>121.149436</v>
+        <v>121.14943599999999</v>
       </c>
       <c r="D179">
-        <v>31.318525</v>
+        <v>31.318525000000001</v>
       </c>
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C180">
         <v>121.173654</v>
       </c>
       <c r="D180">
-        <v>31.325244</v>
+        <v>31.325244000000001</v>
       </c>
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C181">
         <v>121.176198</v>
@@ -4736,40 +4150,40 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C182">
         <v>121.184607</v>
       </c>
       <c r="D182">
-        <v>31.336104</v>
+        <v>31.336103999999999</v>
       </c>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="C183">
-        <v>121.489038</v>
+        <v>121.48903799999999</v>
       </c>
       <c r="D183">
-        <v>30.872027</v>
+        <v>30.872026999999999</v>
       </c>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C184">
         <v>121.189035</v>
@@ -4781,25 +4195,25 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C185">
         <v>121.76931</v>
       </c>
       <c r="D185">
-        <v>31.154759</v>
+        <v>31.154758999999999</v>
       </c>
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C186">
         <v>121.693138</v>
@@ -4811,88 +4225,88 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C187">
         <v>121.441774</v>
       </c>
       <c r="D187">
-        <v>30.916718</v>
+        <v>30.916717999999999</v>
       </c>
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="C188">
         <v>121.213644</v>
       </c>
       <c r="D188">
-        <v>31.317523</v>
+        <v>31.317523000000001</v>
       </c>
       <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="C189">
         <v>121.641069</v>
       </c>
       <c r="D189">
-        <v>31.281759</v>
+        <v>31.281759000000001</v>
       </c>
       <c r="E189" s="6"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B190" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="C190">
-        <v>121.565841</v>
+        <v>121.56584100000001</v>
       </c>
       <c r="D190">
-        <v>31.151734</v>
+        <v>31.151734000000001</v>
       </c>
       <c r="E190" s="6"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="C191">
         <v>121.26903</v>
       </c>
       <c r="D191">
-        <v>31.384966</v>
+        <v>31.384965999999999</v>
       </c>
       <c r="E191" s="6"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="C192">
-        <v>121.541153</v>
+        <v>121.54115299999999</v>
       </c>
       <c r="D192">
         <v>31.188703</v>
@@ -4901,57 +4315,56 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B193" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="C193">
         <v>121.066141</v>
       </c>
       <c r="D193">
-        <v>31.117199</v>
+        <v>31.117198999999999</v>
       </c>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:5">
       <c r="A194" s="1"/>
     </row>
-    <row r="196" ht="8" customHeight="1"/>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:5">
       <c r="A197" s="7"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:5">
       <c r="A198" s="7"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:5">
       <c r="A199" s="7"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:5">
       <c r="A200" s="7"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:5">
       <c r="A201" s="7"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:5">
       <c r="A202" s="7"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:5">
       <c r="A203" s="7"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:5">
       <c r="A204" s="7"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:5">
       <c r="A205" s="7"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:5">
       <c r="A206" s="7"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:5">
       <c r="A207" s="7"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:5">
       <c r="A208" s="7"/>
     </row>
     <row r="209" spans="1:1">
@@ -15872,7 +15285,6 @@
       <c r="A3847" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/code/position.xlsx
+++ b/code/position.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixiang/Documents/GitHub/logistic_project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF4804B-1EEC-3541-B236-168A31C13C7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9497C4FA-039B-A648-8870-C13454344833}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1610,7 +1610,7 @@
         <v>121.277727</v>
       </c>
       <c r="D3">
-        <v>121.277727</v>
+        <v>31.230224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
